--- a/test-case1.xlsx
+++ b/test-case1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Test ID 1</t>
   </si>
@@ -35,13 +35,6 @@
   </si>
   <si>
     <t>User is on https://accounts.google.com/signin/v2/identifier?service=accountsettings&amp;continue=https%3A%2F%2Fmyaccount.google.com%3Futm_source%3Daccount-marketing-page%26utm_medium%3Dgo-to-account-button&amp;flowName=GlifWebSignIn&amp;flowEntry=ServiceLogin</t>
-  </si>
-  <si>
-    <t>2. Click on Next</t>
-  </si>
-  <si>
-    <t>Error "Couldn't" find
-your Google Account</t>
   </si>
   <si>
     <t>testcase189@gmail.com
@@ -49,18 +42,32 @@
 field</t>
   </si>
   <si>
-    <t>1. Tap on email field
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Error "Couldn't find
+your Google Account"</t>
+  </si>
+  <si>
+    <t>2. Tap on email field
 and enter
 testcase189@gmail.com</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>3. Click on forgot email?</t>
-  </si>
-  <si>
-    <t>User is on Find your email screen</t>
+    <t>3. Click on Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on the field 
+phone number or email adress
+</t>
+  </si>
+  <si>
+    <t>Check field Phone number or email adress</t>
+  </si>
+  <si>
+    <t>The text Phone number
+or email adress appeared on the top of field. Border of the field
+changed to bold blue</t>
   </si>
 </sst>
 </file>
@@ -443,17 +450,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -473,60 +480,68 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8 E9:E19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E12:E18">
       <formula1>"Pass, Fail, Bloked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
